--- a/data/trans_dic/P69$dolorMuscular-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorMuscular-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5162632708425262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7654176154875609</v>
+        <v>0.765417615487561</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6479979731376027</v>
@@ -685,7 +685,7 @@
         <v>0.7184987610983625</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6036094741127289</v>
+        <v>0.603609474112729</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5463555448581692</v>
@@ -697,7 +697,7 @@
         <v>0.5885943675543794</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.693645392871564</v>
+        <v>0.6936453928715641</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3923778358687277</v>
+        <v>0.3894310353217661</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4586938261701725</v>
+        <v>0.4663667750574613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.367205021258101</v>
+        <v>0.371470828456193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6550387217344015</v>
+        <v>0.6403882240173517</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4556348124671082</v>
+        <v>0.4615204882557107</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4614225985209364</v>
+        <v>0.4401867974588176</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5361866503508499</v>
+        <v>0.527932406632213</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4951883937347616</v>
+        <v>0.4946145389592659</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4549682142068722</v>
+        <v>0.4491397282623895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.504333031938463</v>
+        <v>0.4936438743726875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4796560805992576</v>
+        <v>0.479705133723266</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6006931079220506</v>
+        <v>0.6153136023780482</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.62162930078988</v>
+        <v>0.6175803799780979</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6863018398047263</v>
+        <v>0.6891368235525812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6388757262760354</v>
+        <v>0.6424345616247341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8563710498537439</v>
+        <v>0.8514161704383183</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7998703414629533</v>
+        <v>0.8047474077236298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7887317812869405</v>
+        <v>0.7822579789931847</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8628124325797391</v>
+        <v>0.861233185809962</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7075603875902602</v>
+        <v>0.7078530482777066</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6419606976282555</v>
+        <v>0.6353363307000949</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6823327277013146</v>
+        <v>0.6778513169145927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.699564783308824</v>
+        <v>0.6951983663168508</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7621613474273066</v>
+        <v>0.7611941005804546</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6609354770349204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6543786277571029</v>
+        <v>0.6543786277571032</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4250607521096417</v>
@@ -833,7 +833,7 @@
         <v>0.6652365159178646</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6391350581279475</v>
+        <v>0.6391350581279476</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3922083080071526</v>
+        <v>0.3912812323721234</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4783020109052074</v>
+        <v>0.4821923988741834</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5543887932162914</v>
+        <v>0.5550993498994816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5392666491669057</v>
+        <v>0.564865390925958</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2835159354841424</v>
+        <v>0.2884283705277743</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.423455829157579</v>
+        <v>0.4113666099309412</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5226562643332434</v>
+        <v>0.5058121628006286</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5355412140449768</v>
+        <v>0.5366210207626044</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3994016678086658</v>
+        <v>0.3920296806904356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4835275958377712</v>
+        <v>0.4835758880246119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5860612923010987</v>
+        <v>0.5811824636103097</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5750378531871487</v>
+        <v>0.5673806503917139</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5685234002985263</v>
+        <v>0.5638420308990107</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6887209112153548</v>
+        <v>0.6959137071404566</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.760561919520927</v>
+        <v>0.7547519155639543</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7392156532788708</v>
+        <v>0.7519031483884072</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5648570890761547</v>
+        <v>0.5703995773352248</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6811842129998211</v>
+        <v>0.6758695056760873</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7957998602829571</v>
+        <v>0.7840108123390136</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6959238491314454</v>
+        <v>0.7009957105582283</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5435081183625544</v>
+        <v>0.5373938170334445</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6512272269258845</v>
+        <v>0.6528392910485911</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7406144528043032</v>
+        <v>0.7467787107904558</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7005117009279601</v>
+        <v>0.7007747656933184</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.585630984648124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4731198497399607</v>
+        <v>0.4731198497399609</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6307940989112312</v>
@@ -969,7 +969,7 @@
         <v>0.6326629193317252</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4978194178635588</v>
+        <v>0.4978194178635587</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4529565717015478</v>
+        <v>0.4601348642740892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4591730519800001</v>
+        <v>0.4534879632724343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4891476172199181</v>
+        <v>0.4890048554006967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3499538193756354</v>
+        <v>0.3365556201016837</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.481059667558338</v>
+        <v>0.48405461518969</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2493696995848342</v>
+        <v>0.2556939388199306</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.590295730627497</v>
+        <v>0.584376915700226</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4063617721847442</v>
+        <v>0.4122872878707158</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4924949129725282</v>
+        <v>0.4976974213377058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3994403202542064</v>
+        <v>0.4063550591894663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5540399967499703</v>
+        <v>0.5615960948221533</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4024442807172953</v>
+        <v>0.4092262076856441</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6525389209247642</v>
+        <v>0.6712386774537061</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.689748269185705</v>
+        <v>0.6913787374721828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6840315687239785</v>
+        <v>0.6878402520498196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6313495928577443</v>
+        <v>0.6103235347918217</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7598066160071831</v>
+        <v>0.7537797416995786</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5188583409243398</v>
+        <v>0.5392509023103007</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8094116034508845</v>
+        <v>0.8168223083216779</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6311909683007412</v>
+        <v>0.629806309483829</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6649808272827471</v>
+        <v>0.660135838691047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5821718023704505</v>
+        <v>0.5927738647869067</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7079208917958637</v>
+        <v>0.7074094095942794</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5872421027016189</v>
+        <v>0.5798769341427973</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5969793627952266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6150983846147392</v>
+        <v>0.6150983846147393</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4656056379081759</v>
@@ -1093,7 +1093,7 @@
         <v>0.6107748676618443</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6580780234331133</v>
+        <v>0.6580780234331131</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5136329767132392</v>
@@ -1105,7 +1105,7 @@
         <v>0.6029161722026964</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6364912704631016</v>
+        <v>0.6364912704631018</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4674159526349978</v>
+        <v>0.4641595743959693</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3442683328160788</v>
+        <v>0.353655627468087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4771116089527722</v>
+        <v>0.4809775959344399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5172775437344057</v>
+        <v>0.5122540039642284</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3622190919857157</v>
+        <v>0.3564090107986262</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3919885482549831</v>
+        <v>0.4067730509598644</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4851687158133173</v>
+        <v>0.4886643118781708</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5718134961163505</v>
+        <v>0.5628823551593499</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4477410021813641</v>
+        <v>0.4454755307544517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.394733148468505</v>
+        <v>0.3950316577937402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.51576152256839</v>
+        <v>0.5222131148575205</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5703894531774005</v>
+        <v>0.5749051031051894</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6338604633258301</v>
+        <v>0.6231677967135885</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5656195140667759</v>
+        <v>0.5736993580388693</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7000646983614368</v>
+        <v>0.7034821276703742</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7094056768507735</v>
+        <v>0.70527191928777</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5823682110504973</v>
+        <v>0.5654451698000025</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6547697745088052</v>
+        <v>0.6659085250529888</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7242341646554099</v>
+        <v>0.7239570347501803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7349340326483692</v>
+        <v>0.7300965422056299</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5832595045468838</v>
+        <v>0.5772139089571242</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5727357786446473</v>
+        <v>0.577731838880608</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6870059099023366</v>
+        <v>0.6826878198244232</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6984322492012968</v>
+        <v>0.7010106254065392</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.6268423062071153</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6215689123963156</v>
+        <v>0.6215689123963158</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5443497166541906</v>
+        <v>0.5416053855701742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5779583043096858</v>
+        <v>0.5801276829931096</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5626876201391734</v>
+        <v>0.5642689367697982</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4949134687714661</v>
+        <v>0.4929011479146192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5816933674115641</v>
+        <v>0.5860636397067324</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5843152915122648</v>
+        <v>0.5835275180138557</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6541390439472835</v>
+        <v>0.6495173072441645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6898521422294938</v>
+        <v>0.6891720731897039</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6515439059377878</v>
+        <v>0.6543531439003913</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.578857737910898</v>
+        <v>0.5747550059606914</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6671634253962926</v>
+        <v>0.6689268647090703</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6543620319724296</v>
+        <v>0.6593922509756256</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31128</v>
+        <v>30894</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35127</v>
+        <v>35714</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19729</v>
+        <v>19958</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>49157</v>
+        <v>48057</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14690</v>
+        <v>14880</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16267</v>
+        <v>15518</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16040</v>
+        <v>15793</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29623</v>
+        <v>29588</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50762</v>
+        <v>50111</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>56402</v>
+        <v>55206</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40119</v>
+        <v>40123</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>81012</v>
+        <v>82984</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49314</v>
+        <v>48993</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52557</v>
+        <v>52774</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34325</v>
+        <v>34516</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64266</v>
+        <v>63894</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25789</v>
+        <v>25946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27806</v>
+        <v>27578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25811</v>
+        <v>25764</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42327</v>
+        <v>42344</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>71625</v>
+        <v>70886</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>76308</v>
+        <v>75807</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>58513</v>
+        <v>58148</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>102789</v>
+        <v>102658</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57255</v>
+        <v>57120</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43470</v>
+        <v>43824</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53767</v>
+        <v>53836</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>71331</v>
+        <v>74717</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14969</v>
+        <v>15228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25971</v>
+        <v>25230</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29035</v>
+        <v>28099</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56781</v>
+        <v>56896</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>79392</v>
+        <v>77926</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>73601</v>
+        <v>73608</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>89395</v>
+        <v>88651</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>137032</v>
+        <v>135207</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>82994</v>
+        <v>82310</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>62594</v>
+        <v>63248</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73762</v>
+        <v>73199</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>97779</v>
+        <v>99457</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29823</v>
+        <v>30115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41778</v>
+        <v>41452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44208</v>
+        <v>43553</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73786</v>
+        <v>74324</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>108037</v>
+        <v>106822</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>99127</v>
+        <v>99373</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>112970</v>
+        <v>113910</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>166932</v>
+        <v>166995</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>49800</v>
+        <v>50589</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36530</v>
+        <v>36078</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>53774</v>
+        <v>53759</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23548</v>
+        <v>22647</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22385</v>
+        <v>22525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13211</v>
+        <v>13546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38220</v>
+        <v>37837</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28735</v>
+        <v>29154</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>77064</v>
+        <v>77878</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>52940</v>
+        <v>53857</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>96781</v>
+        <v>98101</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55538</v>
+        <v>56474</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71743</v>
+        <v>73799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54874</v>
+        <v>55004</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>75199</v>
+        <v>75618</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42484</v>
+        <v>41069</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35356</v>
+        <v>35076</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27489</v>
+        <v>28569</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52407</v>
+        <v>52887</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44633</v>
+        <v>44535</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104054</v>
+        <v>103296</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>77159</v>
+        <v>78564</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>123661</v>
+        <v>123572</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>81041</v>
+        <v>80024</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>63675</v>
+        <v>63232</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27002</v>
+        <v>27738</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41736</v>
+        <v>42074</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55211</v>
+        <v>54675</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32075</v>
+        <v>31560</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25125</v>
+        <v>26073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32061</v>
+        <v>32292</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60484</v>
+        <v>59539</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>100643</v>
+        <v>100134</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>56261</v>
+        <v>56303</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79200</v>
+        <v>80191</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>121213</v>
+        <v>122173</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86350</v>
+        <v>84893</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>44363</v>
+        <v>44996</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61239</v>
+        <v>61538</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75718</v>
+        <v>75276</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51569</v>
+        <v>50071</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41968</v>
+        <v>42682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47860</v>
+        <v>47841</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>77738</v>
+        <v>77226</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131104</v>
+        <v>129746</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>81631</v>
+        <v>82344</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>105496</v>
+        <v>104833</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>148423</v>
+        <v>148971</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>189500</v>
+        <v>188545</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>220400</v>
+        <v>221227</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>192628</v>
+        <v>193169</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>266816</v>
+        <v>265731</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>328319</v>
+        <v>330785</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>422855</v>
+        <v>422285</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>227720</v>
+        <v>226111</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>263070</v>
+        <v>262810</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>223046</v>
+        <v>224008</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>312071</v>
+        <v>309860</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>376560</v>
+        <v>377555</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>473546</v>
+        <v>477186</v>
       </c>
     </row>
     <row r="24">
